--- a/biology/Zoologie/Iwogumoa_yaeyamensis/Iwogumoa_yaeyamensis.xlsx
+++ b/biology/Zoologie/Iwogumoa_yaeyamensis/Iwogumoa_yaeyamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iwogumoa yaeyamensis est une espèce d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwogumoa yaeyamensis est une espèce d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1],[2]. Elle se rencontre sur Ishigaki-jima et Iriomote-jima.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon,. Elle se rencontre sur Ishigaki-jima et Iriomote-jima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,09 mm et la femelle paratype 8,6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,09 mm et la femelle paratype 8,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Coelotes yaeyamensis par Shimojana en 1982. Elle est placée dans le genre Asiacoelotes par Wang en 2002[2] puis dans le genre Iwogumoa par Nishikawa et Ono en 2004[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Coelotes yaeyamensis par Shimojana en 1982. Elle est placée dans le genre Asiacoelotes par Wang en 2002 puis dans le genre Iwogumoa par Nishikawa et Ono en 2004.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de yaeyam[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les îles Yaeyama.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Shimojana, 1982 : « A new species of the genus Coelotes (Araneae, Agelenidae) from the Yaeyama Islands, Okinawa Prefecture, Japan. » Acta Arachnologica, vol. 30, no 2, p. 75-82 (texte intégral).</t>
         </is>
